--- a/database/industries/kaghaz/chekapa/product/quarterly_seprated.xlsx
+++ b/database/industries/kaghaz/chekapa/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16E5A5-AB4B-4A01-84F0-9E28E11973A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,17 +647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -632,7 +667,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +679,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +691,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -666,7 +701,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -678,7 +713,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +735,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -732,7 +767,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -744,7 +779,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -768,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -792,7 +827,7 @@
         <v>7197</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -816,7 +851,7 @@
         <v>6703</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -840,7 +875,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -864,7 +899,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -888,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
@@ -910,7 +945,7 @@
         <v>18549</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -922,7 +957,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
@@ -946,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1075,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1087,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1201,7 @@
         <v>18783</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1176,7 +1211,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1186,7 +1221,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1196,7 +1231,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1228,7 +1263,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1275,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>1354801</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1347,7 @@
         <v>1142618</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1371,7 @@
         <v>644772</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>634666</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1441,7 @@
         <v>3776857</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1453,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>16372</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
@@ -1514,7 +1549,7 @@
         <v>29738</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>21</v>
       </c>
@@ -1536,7 +1571,7 @@
         <v>46110</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
@@ -1548,7 +1583,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
@@ -1618,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>27</v>
       </c>
@@ -1664,7 +1699,7 @@
         <v>3822967</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1674,7 +1709,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1684,7 +1719,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1694,7 +1729,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1726,7 +1761,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1773,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1821,7 @@
         <v>188245241</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>15</v>
       </c>
@@ -1810,7 +1845,7 @@
         <v>170463673</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1869,7 @@
         <v>258115292</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -1858,7 +1893,7 @@
         <v>295056253</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>18</v>
       </c>
@@ -1882,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>36</v>
       </c>
@@ -1894,7 +1929,7 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>14</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +2001,7 @@
         <v>176043011</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>16</v>
       </c>
@@ -1990,7 +2025,7 @@
         <v>210907801</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +2037,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2036,7 +2071,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2046,7 +2081,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2056,7 +2091,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2088,7 +2123,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>39</v>
       </c>
@@ -2100,7 +2135,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>-1018593</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
@@ -2172,7 +2207,7 @@
         <v>-786500</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2231,7 @@
         <v>-482635</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2255,7 @@
         <v>-534593</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>-2822321</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2313,7 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>11</v>
       </c>
@@ -2302,7 +2337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>14</v>
       </c>
@@ -2326,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2385,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>16</v>
       </c>
@@ -2374,7 +2409,7 @@
         <v>-26380</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>42</v>
       </c>
@@ -2396,7 +2431,7 @@
         <v>-23839</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>43</v>
       </c>
@@ -2408,7 +2443,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>11</v>
       </c>
@@ -2432,7 +2467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="16" t="s">
         <v>44</v>
       </c>
@@ -2454,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>24</v>
       </c>
@@ -2478,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>26</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>27</v>
       </c>
@@ -2524,7 +2559,7 @@
         <v>-2846160</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2534,7 +2569,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2544,7 +2579,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2554,7 +2589,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>45</v>
       </c>
@@ -2576,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2586,7 +2621,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>46</v>
       </c>
@@ -2598,7 +2633,7 @@
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>11</v>
       </c>
@@ -2622,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>14</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>336208</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>15</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>356118</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>16</v>
       </c>
@@ -2694,7 +2729,7 @@
         <v>162137</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>17</v>
       </c>
@@ -2718,7 +2753,7 @@
         <v>100073</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>18</v>
       </c>
@@ -2742,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>47</v>
       </c>
@@ -2764,7 +2799,7 @@
         <v>954536</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>48</v>
       </c>
@@ -2776,7 +2811,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>11</v>
       </c>
@@ -2800,7 +2835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>14</v>
       </c>
@@ -2824,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2883,7 @@
         <v>18913</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>16</v>
       </c>
@@ -2872,7 +2907,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>49</v>
       </c>
@@ -2894,7 +2929,7 @@
         <v>22271</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>50</v>
       </c>
@@ -2906,7 +2941,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>11</v>
       </c>
@@ -2930,7 +2965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="16" t="s">
         <v>51</v>
       </c>
@@ -2952,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>27</v>
       </c>

--- a/database/industries/kaghaz/chekapa/product/quarterly_seprated.xlsx
+++ b/database/industries/kaghaz/chekapa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16E5A5-AB4B-4A01-84F0-9E28E11973A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E36C92F-5A47-4856-BA09-2DF385FFF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/11</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/02</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/05</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -648,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I121"/>
+  <dimension ref="B1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -666,8 +681,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +698,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -690,8 +715,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -700,8 +730,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,8 +747,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,8 +764,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -734,8 +779,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,8 +806,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,10 +831,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -778,176 +848,286 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>507</v>
       </c>
       <c r="F11" s="11">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="G11" s="11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H11" s="11">
+        <v>-5</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>-18</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>3496</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3729</v>
+      </c>
+      <c r="G12" s="13">
+        <v>522</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2450</v>
+      </c>
+      <c r="I12" s="13">
         <v>273</v>
       </c>
-      <c r="F12" s="13">
+      <c r="J12" s="13">
         <v>6046</v>
       </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
         <v>3203</v>
       </c>
-      <c r="H12" s="13">
+      <c r="L12" s="13">
         <v>9678</v>
       </c>
-      <c r="I12" s="13">
+      <c r="M12" s="13">
         <v>7197</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="13">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5975</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5112</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5403</v>
+      </c>
+      <c r="I13" s="11">
         <v>3116</v>
       </c>
-      <c r="F13" s="11">
+      <c r="J13" s="11">
         <v>6844</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>5351</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>5997</v>
       </c>
-      <c r="I13" s="11">
+      <c r="M13" s="11">
         <v>6703</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="11">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>4181</v>
+      </c>
+      <c r="F14" s="13">
+        <v>9893</v>
+      </c>
+      <c r="G14" s="13">
+        <v>9806</v>
+      </c>
+      <c r="H14" s="13">
+        <v>6717</v>
+      </c>
+      <c r="I14" s="13">
         <v>7873</v>
       </c>
-      <c r="F14" s="13">
+      <c r="J14" s="13">
         <v>8528</v>
       </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13">
         <v>4572</v>
       </c>
-      <c r="H14" s="13">
+      <c r="L14" s="13">
         <v>730</v>
       </c>
-      <c r="I14" s="13">
+      <c r="M14" s="13">
         <v>2498</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="13">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2413</v>
+      </c>
+      <c r="I15" s="11">
         <v>382</v>
       </c>
-      <c r="F15" s="11">
+      <c r="J15" s="11">
         <v>1163</v>
       </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
         <v>1823</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>665</v>
       </c>
-      <c r="I15" s="11">
+      <c r="M15" s="11">
         <v>2151</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="11">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>-2665</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>11519</v>
+      </c>
+      <c r="F17" s="15">
+        <v>20305</v>
+      </c>
+      <c r="G17" s="15">
+        <v>15645</v>
+      </c>
+      <c r="H17" s="15">
+        <v>16978</v>
+      </c>
+      <c r="I17" s="15">
         <v>11644</v>
       </c>
-      <c r="F17" s="15">
+      <c r="J17" s="15">
         <v>22581</v>
       </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
         <v>14967</v>
       </c>
-      <c r="H17" s="15">
+      <c r="L17" s="15">
         <v>17052</v>
       </c>
-      <c r="I17" s="15">
+      <c r="M17" s="15">
         <v>18549</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N17" s="15">
+        <v>16759</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -956,128 +1136,208 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>609</v>
+      </c>
+      <c r="F20" s="13">
+        <v>-96</v>
+      </c>
+      <c r="G20" s="13">
+        <v>407</v>
+      </c>
+      <c r="H20" s="13">
+        <v>457</v>
+      </c>
+      <c r="I20" s="13">
         <v>771</v>
       </c>
-      <c r="F20" s="13">
+      <c r="J20" s="13">
         <v>734</v>
       </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
+        <v>179</v>
+      </c>
+      <c r="F21" s="11">
+        <v>44</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
         <v>92</v>
       </c>
-      <c r="F21" s="11">
+      <c r="J21" s="11">
         <v>47</v>
       </c>
-      <c r="G21" s="11">
+      <c r="K21" s="11">
         <v>778</v>
       </c>
-      <c r="H21" s="11">
+      <c r="L21" s="11">
         <v>170</v>
       </c>
-      <c r="I21" s="11">
+      <c r="M21" s="11">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>92</v>
+      </c>
+      <c r="G22" s="13">
+        <v>72</v>
+      </c>
+      <c r="H22" s="13">
+        <v>843</v>
+      </c>
+      <c r="I22" s="13">
         <v>203</v>
       </c>
-      <c r="F22" s="13">
+      <c r="J22" s="13">
         <v>111</v>
       </c>
-      <c r="G22" s="13">
+      <c r="K22" s="13">
         <v>204</v>
       </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
         <v>141</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>788</v>
+      </c>
+      <c r="F23" s="15">
+        <v>40</v>
+      </c>
+      <c r="G23" s="15">
+        <v>479</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1300</v>
+      </c>
+      <c r="I23" s="15">
         <v>1066</v>
       </c>
-      <c r="F23" s="15">
+      <c r="J23" s="15">
         <v>892</v>
       </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
         <v>982</v>
       </c>
-      <c r="H23" s="15">
+      <c r="L23" s="15">
         <v>170</v>
       </c>
-      <c r="I23" s="15">
+      <c r="M23" s="15">
         <v>234</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1086,34 +1346,54 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
+      <c r="E25" s="11">
+        <v>0</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1132,76 +1412,136 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
         <v>0</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>13</v>
+      <c r="E28" s="17">
+        <v>0</v>
       </c>
       <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>13</v>
+      <c r="G28" s="17">
+        <v>0</v>
       </c>
       <c r="H28" s="17">
         <v>0</v>
       </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>12307</v>
+      </c>
+      <c r="F29" s="15">
+        <v>20345</v>
+      </c>
+      <c r="G29" s="15">
+        <v>16124</v>
+      </c>
+      <c r="H29" s="15">
+        <v>18278</v>
+      </c>
+      <c r="I29" s="15">
         <v>12710</v>
       </c>
-      <c r="F29" s="15">
+      <c r="J29" s="15">
         <v>23473</v>
       </c>
-      <c r="G29" s="15">
+      <c r="K29" s="15">
         <v>15949</v>
       </c>
-      <c r="H29" s="15">
+      <c r="L29" s="15">
         <v>17222</v>
       </c>
-      <c r="I29" s="15">
+      <c r="M29" s="15">
         <v>18783</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N29" s="15">
+        <v>16873</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1210,8 +1550,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1220,8 +1565,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1230,10 +1580,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1252,8 +1607,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1262,10 +1632,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1274,176 +1649,286 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>37490</v>
       </c>
       <c r="F36" s="11">
-        <v>0</v>
+        <v>32662</v>
       </c>
       <c r="G36" s="11">
+        <v>561</v>
+      </c>
+      <c r="H36" s="11">
+        <v>-561</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
         <v>27000</v>
       </c>
-      <c r="H36" s="11">
+      <c r="L36" s="11">
         <v>-27000</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>293996</v>
+      </c>
+      <c r="F37" s="13">
+        <v>371133</v>
+      </c>
+      <c r="G37" s="13">
+        <v>57478</v>
+      </c>
+      <c r="H37" s="13">
+        <v>254651</v>
+      </c>
+      <c r="I37" s="13">
         <v>190543</v>
       </c>
-      <c r="F37" s="13">
+      <c r="J37" s="13">
         <v>338143</v>
       </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13">
         <v>545528</v>
       </c>
-      <c r="H37" s="13">
+      <c r="L37" s="13">
         <v>1851072</v>
       </c>
-      <c r="I37" s="13">
+      <c r="M37" s="13">
         <v>1354801</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="13">
+        <v>2259695</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>365517</v>
+      </c>
+      <c r="F38" s="11">
+        <v>488444</v>
+      </c>
+      <c r="G38" s="11">
+        <v>589943</v>
+      </c>
+      <c r="H38" s="11">
+        <v>740054</v>
+      </c>
+      <c r="I38" s="11">
         <v>417345</v>
       </c>
-      <c r="F38" s="11">
+      <c r="J38" s="11">
         <v>806148</v>
       </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
         <v>737698</v>
       </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
         <v>954162</v>
       </c>
-      <c r="I38" s="11">
+      <c r="M38" s="11">
         <v>1142618</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>863326</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
+        <v>457655</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1379979</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1564113</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1348291</v>
+      </c>
+      <c r="I39" s="13">
         <v>1334762</v>
       </c>
-      <c r="F39" s="13">
+      <c r="J39" s="13">
         <v>1468813</v>
       </c>
-      <c r="G39" s="13">
+      <c r="K39" s="13">
         <v>1094732</v>
       </c>
-      <c r="H39" s="13">
+      <c r="L39" s="13">
         <v>152719</v>
       </c>
-      <c r="I39" s="13">
+      <c r="M39" s="13">
         <v>644772</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N39" s="13">
+        <v>268699</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11">
+      <c r="E40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="11">
+        <v>406096</v>
+      </c>
+      <c r="I40" s="11">
         <v>79270</v>
       </c>
-      <c r="F40" s="11">
+      <c r="J40" s="11">
         <v>213317</v>
       </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11">
         <v>385551</v>
       </c>
-      <c r="H40" s="11">
+      <c r="L40" s="11">
         <v>164757</v>
       </c>
-      <c r="I40" s="11">
+      <c r="M40" s="11">
         <v>634666</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>956932</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
+      <c r="E41" s="13">
+        <v>-188113</v>
       </c>
       <c r="F41" s="13">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="13">
-        <v>0</v>
-      </c>
-      <c r="I41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>12400</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
+        <v>966545</v>
+      </c>
+      <c r="F42" s="15">
+        <v>2289558</v>
+      </c>
+      <c r="G42" s="15">
+        <v>2224495</v>
+      </c>
+      <c r="H42" s="15">
+        <v>2748531</v>
+      </c>
+      <c r="I42" s="15">
         <v>2021920</v>
       </c>
-      <c r="F42" s="15">
+      <c r="J42" s="15">
         <v>2826421</v>
       </c>
-      <c r="G42" s="15">
+      <c r="K42" s="15">
         <v>2790509</v>
       </c>
-      <c r="H42" s="15">
+      <c r="L42" s="15">
         <v>3095710</v>
       </c>
-      <c r="I42" s="15">
+      <c r="M42" s="15">
         <v>3776857</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="15">
+        <v>4348652</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1452,128 +1937,208 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="11">
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
+        <v>61943</v>
+      </c>
+      <c r="F45" s="13">
+        <v>-11278</v>
+      </c>
+      <c r="G45" s="13">
+        <v>56540</v>
+      </c>
+      <c r="H45" s="13">
+        <v>57226</v>
+      </c>
+      <c r="I45" s="13">
         <v>101966</v>
       </c>
-      <c r="F45" s="13">
+      <c r="J45" s="13">
         <v>142868</v>
       </c>
-      <c r="G45" s="13">
-        <v>0</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K45" s="13">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>13766</v>
+      </c>
+      <c r="F46" s="11">
+        <v>4637</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
         <v>12740</v>
       </c>
-      <c r="F46" s="11">
+      <c r="J46" s="11">
         <v>5717</v>
       </c>
-      <c r="G46" s="11">
+      <c r="K46" s="11">
         <v>124780</v>
       </c>
-      <c r="H46" s="11">
+      <c r="L46" s="11">
         <v>26825</v>
       </c>
-      <c r="I46" s="11">
+      <c r="M46" s="11">
         <v>16372</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>16545</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>13631</v>
+      </c>
+      <c r="G47" s="13">
+        <v>10139</v>
+      </c>
+      <c r="H47" s="13">
+        <v>118774</v>
+      </c>
+      <c r="I47" s="13">
         <v>37625</v>
       </c>
-      <c r="F47" s="13">
+      <c r="J47" s="13">
         <v>22603</v>
       </c>
-      <c r="G47" s="13">
+      <c r="K47" s="13">
         <v>40255</v>
       </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
         <v>29738</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
+        <v>75709</v>
+      </c>
+      <c r="F48" s="15">
+        <v>6990</v>
+      </c>
+      <c r="G48" s="15">
+        <v>66679</v>
+      </c>
+      <c r="H48" s="15">
+        <v>176000</v>
+      </c>
+      <c r="I48" s="15">
         <v>152331</v>
       </c>
-      <c r="F48" s="15">
+      <c r="J48" s="15">
         <v>171188</v>
       </c>
-      <c r="G48" s="15">
+      <c r="K48" s="15">
         <v>165035</v>
       </c>
-      <c r="H48" s="15">
+      <c r="L48" s="15">
         <v>26825</v>
       </c>
-      <c r="I48" s="15">
+      <c r="M48" s="15">
         <v>46110</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N48" s="15">
+        <v>16545</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1582,34 +2147,54 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -1628,78 +2213,138 @@
       <c r="I51" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
+        <v>0</v>
+      </c>
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
+        <v>7541</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>-13047</v>
+      </c>
+      <c r="I52" s="15">
         <v>3052</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
-        <v>13</v>
+      <c r="E53" s="17">
+        <v>0</v>
       </c>
       <c r="F53" s="17">
         <v>0</v>
       </c>
-      <c r="G53" s="17" t="s">
-        <v>13</v>
+      <c r="G53" s="17">
+        <v>0</v>
       </c>
       <c r="H53" s="17">
         <v>0</v>
       </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
+        <v>1049795</v>
+      </c>
+      <c r="F54" s="15">
+        <v>2296548</v>
+      </c>
+      <c r="G54" s="15">
+        <v>2291174</v>
+      </c>
+      <c r="H54" s="15">
+        <v>2911484</v>
+      </c>
+      <c r="I54" s="15">
         <v>2177303</v>
       </c>
-      <c r="F54" s="15">
+      <c r="J54" s="15">
         <v>2997609</v>
       </c>
-      <c r="G54" s="15">
+      <c r="K54" s="15">
         <v>2955544</v>
       </c>
-      <c r="H54" s="15">
+      <c r="L54" s="15">
         <v>3122535</v>
       </c>
-      <c r="I54" s="15">
+      <c r="M54" s="15">
         <v>3822967</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="15">
+        <v>4365197</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1708,8 +2353,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1718,8 +2368,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1728,10 +2383,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1750,8 +2410,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1760,10 +2435,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1772,154 +2452,249 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>98875000</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61" s="11">
+        <v>112200000</v>
+      </c>
+      <c r="H61" s="11">
+        <v>112200000</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="11">
         <v>1500000000</v>
       </c>
-      <c r="H61" s="11">
+      <c r="L61" s="11">
         <v>1500000000</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>83116796</v>
+      </c>
+      <c r="F62" s="13">
+        <v>99526146</v>
+      </c>
+      <c r="G62" s="13">
+        <v>110111111</v>
+      </c>
+      <c r="H62" s="13">
+        <v>103939184</v>
+      </c>
+      <c r="I62" s="13">
         <v>661641026</v>
       </c>
-      <c r="F62" s="13">
+      <c r="J62" s="13">
         <v>55928382</v>
       </c>
-      <c r="G62" s="13">
+      <c r="K62" s="13">
         <v>170317827</v>
       </c>
-      <c r="H62" s="13">
+      <c r="L62" s="13">
         <v>191265964</v>
       </c>
-      <c r="I62" s="13">
+      <c r="M62" s="13">
         <v>188245241</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="13">
+        <v>358681746</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>60985500</v>
+      </c>
+      <c r="F63" s="11">
+        <v>81747950</v>
+      </c>
+      <c r="G63" s="11">
+        <v>115403560</v>
+      </c>
+      <c r="H63" s="11">
+        <v>136970942</v>
+      </c>
+      <c r="I63" s="11">
         <v>133936136</v>
       </c>
-      <c r="F63" s="11">
+      <c r="J63" s="11">
         <v>117789012</v>
       </c>
-      <c r="G63" s="11">
+      <c r="K63" s="11">
         <v>137861708</v>
       </c>
-      <c r="H63" s="11">
+      <c r="L63" s="11">
         <v>159106553</v>
       </c>
-      <c r="I63" s="11">
+      <c r="M63" s="11">
         <v>170463673</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N63" s="11">
+        <v>166184023</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
+        <v>111169337</v>
+      </c>
+      <c r="F64" s="13">
+        <v>139490448</v>
+      </c>
+      <c r="G64" s="13">
+        <v>159505711</v>
+      </c>
+      <c r="H64" s="13">
+        <v>200728152</v>
+      </c>
+      <c r="I64" s="13">
         <v>169128160</v>
       </c>
-      <c r="F64" s="13">
+      <c r="J64" s="13">
         <v>177720802</v>
       </c>
-      <c r="G64" s="13">
+      <c r="K64" s="13">
         <v>239442695</v>
       </c>
-      <c r="H64" s="13">
+      <c r="L64" s="13">
         <v>209204110</v>
       </c>
-      <c r="I64" s="13">
+      <c r="M64" s="13">
         <v>258115292</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N64" s="13">
+        <v>255660324</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
+      <c r="E65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="11">
+        <v>168295068</v>
+      </c>
+      <c r="I65" s="11">
         <v>207513089</v>
       </c>
-      <c r="F65" s="11">
+      <c r="J65" s="11">
         <v>183419604</v>
       </c>
-      <c r="G65" s="11">
+      <c r="K65" s="11">
         <v>211492595</v>
       </c>
-      <c r="H65" s="11">
+      <c r="L65" s="11">
         <v>247754887</v>
       </c>
-      <c r="I65" s="11">
+      <c r="M65" s="11">
         <v>295056253</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N65" s="11">
+        <v>227137906</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F66" s="13">
+        <v>57800000</v>
+      </c>
+      <c r="G66" s="13">
+        <v>62000000</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -1928,106 +2703,171 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
+        <v>101712644</v>
+      </c>
+      <c r="F69" s="13">
+        <v>117479167</v>
+      </c>
+      <c r="G69" s="13">
+        <v>138918919</v>
+      </c>
+      <c r="H69" s="13">
+        <v>125221007</v>
+      </c>
+      <c r="I69" s="13">
         <v>132251621</v>
       </c>
-      <c r="F69" s="13">
+      <c r="J69" s="13">
         <v>194643052</v>
       </c>
-      <c r="G69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>76905028</v>
+      </c>
+      <c r="F70" s="11">
+        <v>105386364</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="11">
         <v>138478261</v>
       </c>
-      <c r="F70" s="11">
+      <c r="J70" s="11">
         <v>121638298</v>
       </c>
-      <c r="G70" s="11">
+      <c r="K70" s="11">
         <v>160385604</v>
       </c>
-      <c r="H70" s="11">
+      <c r="L70" s="11">
         <v>157794118</v>
       </c>
-      <c r="I70" s="11">
+      <c r="M70" s="11">
         <v>176043011</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N70" s="11">
+        <v>145131579</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="13">
+      <c r="E71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="13">
+        <v>148163043</v>
+      </c>
+      <c r="G71" s="13">
+        <v>140819444</v>
+      </c>
+      <c r="H71" s="13">
+        <v>140894425</v>
+      </c>
+      <c r="I71" s="13">
         <v>185344828</v>
       </c>
-      <c r="F71" s="13">
+      <c r="J71" s="13">
         <v>203630631</v>
       </c>
-      <c r="G71" s="13">
+      <c r="K71" s="13">
         <v>197328431</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="13">
+      <c r="L71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="13">
         <v>210907801</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N71" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2036,32 +2876,52 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2070,8 +2930,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2080,8 +2945,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2090,10 +2960,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2112,8 +2987,23 @@
       <c r="I77" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2122,10 +3012,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2134,176 +3029,286 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
+      <c r="E80" s="11">
+        <v>-1268</v>
       </c>
       <c r="F80" s="11">
-        <v>0</v>
+        <v>-1203</v>
       </c>
       <c r="G80" s="11">
+        <v>-60</v>
+      </c>
+      <c r="H80" s="11">
+        <v>60</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11">
         <v>-25000</v>
       </c>
-      <c r="H80" s="11">
+      <c r="L80" s="11">
         <v>25000</v>
       </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>-158162</v>
+      </c>
+      <c r="F81" s="13">
+        <v>-210459</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-25923</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-132998</v>
+      </c>
+      <c r="I81" s="13">
         <v>-40245</v>
       </c>
-      <c r="F81" s="13">
+      <c r="J81" s="13">
         <v>-373903</v>
       </c>
-      <c r="G81" s="13">
+      <c r="K81" s="13">
         <v>-322125</v>
       </c>
-      <c r="H81" s="13">
+      <c r="L81" s="13">
         <v>-763451</v>
       </c>
-      <c r="I81" s="13">
+      <c r="M81" s="13">
         <v>-1018593</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N81" s="13">
+        <v>-1180739</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>-254401</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-370487</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-391887</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-556169</v>
+      </c>
+      <c r="I82" s="11">
         <v>-401788</v>
       </c>
-      <c r="F82" s="11">
+      <c r="J82" s="11">
         <v>-685504</v>
       </c>
-      <c r="G82" s="11">
+      <c r="K82" s="11">
         <v>-677160</v>
       </c>
-      <c r="H82" s="11">
+      <c r="L82" s="11">
         <v>-832762</v>
       </c>
-      <c r="I82" s="11">
+      <c r="M82" s="11">
         <v>-786500</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11">
+        <v>-1168512</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>-294411</v>
+      </c>
+      <c r="F83" s="13">
+        <v>-996085</v>
+      </c>
+      <c r="G83" s="13">
+        <v>-940324</v>
+      </c>
+      <c r="H83" s="13">
+        <v>-705866</v>
+      </c>
+      <c r="I83" s="13">
         <v>-835765</v>
       </c>
-      <c r="F83" s="13">
+      <c r="J83" s="13">
         <v>-1620585</v>
       </c>
-      <c r="G83" s="13">
+      <c r="K83" s="13">
         <v>-634341</v>
       </c>
-      <c r="H83" s="13">
+      <c r="L83" s="13">
         <v>-240193</v>
       </c>
-      <c r="I83" s="13">
+      <c r="M83" s="13">
         <v>-482635</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="13">
+        <v>-392051</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11">
+      <c r="E84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-271237</v>
+      </c>
+      <c r="I84" s="11">
         <v>-113825</v>
       </c>
-      <c r="F84" s="11">
+      <c r="J84" s="11">
         <v>-48810</v>
       </c>
-      <c r="G84" s="11">
+      <c r="K84" s="11">
         <v>-172530</v>
       </c>
-      <c r="H84" s="11">
+      <c r="L84" s="11">
         <v>-282687</v>
       </c>
-      <c r="I84" s="11">
+      <c r="M84" s="11">
         <v>-534593</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N84" s="11">
+        <v>-861569</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>13</v>
+      <c r="E85" s="13">
+        <v>0</v>
       </c>
       <c r="F85" s="13">
-        <v>0</v>
+        <v>-17340</v>
       </c>
       <c r="G85" s="13">
-        <v>0</v>
-      </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-12400</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="13">
+        <v>0</v>
+      </c>
+      <c r="K85" s="13">
+        <v>0</v>
+      </c>
+      <c r="L85" s="13">
+        <v>0</v>
+      </c>
+      <c r="M85" s="13">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
+        <v>-708242</v>
+      </c>
+      <c r="F86" s="15">
+        <v>-1595574</v>
+      </c>
+      <c r="G86" s="15">
+        <v>-1370594</v>
+      </c>
+      <c r="H86" s="15">
+        <v>-1666210</v>
+      </c>
+      <c r="I86" s="15">
         <v>-1391623</v>
       </c>
-      <c r="F86" s="15">
+      <c r="J86" s="15">
         <v>-2728802</v>
       </c>
-      <c r="G86" s="15">
+      <c r="K86" s="15">
         <v>-1831156</v>
       </c>
-      <c r="H86" s="15">
+      <c r="L86" s="15">
         <v>-2094093</v>
       </c>
-      <c r="I86" s="15">
+      <c r="M86" s="15">
         <v>-2822321</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N86" s="15">
+        <v>-3602871</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2312,128 +3317,208 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>13</v>
+      <c r="E88" s="11">
+        <v>0</v>
       </c>
       <c r="F88" s="11">
         <v>0</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>-33453</v>
+      </c>
+      <c r="F89" s="13">
+        <v>3206</v>
+      </c>
+      <c r="G89" s="13">
+        <v>-25418</v>
+      </c>
+      <c r="H89" s="13">
+        <v>-20783</v>
+      </c>
+      <c r="I89" s="13">
         <v>-54149</v>
       </c>
-      <c r="F89" s="13">
+      <c r="J89" s="13">
         <v>-98646</v>
       </c>
-      <c r="G89" s="13">
-        <v>0</v>
-      </c>
-      <c r="H89" s="13">
-        <v>0</v>
-      </c>
-      <c r="I89" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K89" s="13">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
+        <v>0</v>
+      </c>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-9224</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-3958</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
         <v>-9111</v>
       </c>
-      <c r="F90" s="11">
+      <c r="J90" s="11">
         <v>-4650</v>
       </c>
-      <c r="G90" s="11">
+      <c r="K90" s="11">
         <v>-111532</v>
       </c>
-      <c r="H90" s="11">
+      <c r="L90" s="11">
         <v>-23770</v>
       </c>
-      <c r="I90" s="11">
+      <c r="M90" s="11">
         <v>2541</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N90" s="11">
+        <v>-39397</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
+        <v>-8910</v>
+      </c>
+      <c r="G91" s="13">
+        <v>-6072</v>
+      </c>
+      <c r="H91" s="13">
+        <v>-85090</v>
+      </c>
+      <c r="I91" s="13">
         <v>-22579</v>
       </c>
-      <c r="F91" s="13">
+      <c r="J91" s="13">
         <v>-52974</v>
       </c>
-      <c r="G91" s="13">
+      <c r="K91" s="13">
         <v>-35260</v>
       </c>
-      <c r="H91" s="13">
+      <c r="L91" s="13">
         <v>1611</v>
       </c>
-      <c r="I91" s="13">
+      <c r="M91" s="13">
         <v>-26380</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N91" s="13">
+        <v>-8153</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>-42677</v>
+      </c>
+      <c r="F92" s="15">
+        <v>-9662</v>
+      </c>
+      <c r="G92" s="15">
+        <v>-31490</v>
+      </c>
+      <c r="H92" s="15">
+        <v>-105873</v>
+      </c>
+      <c r="I92" s="15">
         <v>-85839</v>
       </c>
-      <c r="F92" s="15">
+      <c r="J92" s="15">
         <v>-156270</v>
       </c>
-      <c r="G92" s="15">
+      <c r="K92" s="15">
         <v>-146792</v>
       </c>
-      <c r="H92" s="15">
+      <c r="L92" s="15">
         <v>-22159</v>
       </c>
-      <c r="I92" s="15">
+      <c r="M92" s="15">
         <v>-23839</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N92" s="15">
+        <v>-47550</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2442,34 +3527,54 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
+      <c r="E94" s="11">
+        <v>0</v>
       </c>
       <c r="F94" s="11">
         <v>0</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -2488,78 +3593,138 @@
       <c r="I95" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="17">
+        <v>0</v>
+      </c>
+      <c r="K95" s="17">
+        <v>0</v>
+      </c>
+      <c r="L95" s="17">
+        <v>0</v>
+      </c>
+      <c r="M95" s="17">
+        <v>0</v>
+      </c>
+      <c r="N95" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
         <v>0</v>
       </c>
-      <c r="F96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F96" s="15">
+        <v>0</v>
+      </c>
+      <c r="G96" s="15">
+        <v>0</v>
+      </c>
+      <c r="H96" s="15">
+        <v>0</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="17" t="s">
-        <v>13</v>
+      <c r="E97" s="17">
+        <v>0</v>
       </c>
       <c r="F97" s="17">
         <v>0</v>
       </c>
-      <c r="G97" s="17" t="s">
-        <v>13</v>
+      <c r="G97" s="17">
+        <v>0</v>
       </c>
       <c r="H97" s="17">
         <v>0</v>
       </c>
-      <c r="I97" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="17">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="17">
+        <v>0</v>
+      </c>
+      <c r="M97" s="17">
+        <v>0</v>
+      </c>
+      <c r="N97" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
+        <v>-750919</v>
+      </c>
+      <c r="F98" s="15">
+        <v>-1605236</v>
+      </c>
+      <c r="G98" s="15">
+        <v>-1402084</v>
+      </c>
+      <c r="H98" s="15">
+        <v>-1772083</v>
+      </c>
+      <c r="I98" s="15">
         <v>-1477462</v>
       </c>
-      <c r="F98" s="15">
+      <c r="J98" s="15">
         <v>-2885072</v>
       </c>
-      <c r="G98" s="15">
+      <c r="K98" s="15">
         <v>-1977948</v>
       </c>
-      <c r="H98" s="15">
+      <c r="L98" s="15">
         <v>-2116252</v>
       </c>
-      <c r="I98" s="15">
+      <c r="M98" s="15">
         <v>-2846160</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N98" s="15">
+        <v>-3650421</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2568,8 +3733,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2578,8 +3748,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2588,10 +3763,15 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2610,8 +3790,23 @@
       <c r="I102" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2620,10 +3815,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2632,137 +3832,217 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
+      <c r="E105" s="11">
+        <v>-477</v>
       </c>
       <c r="F105" s="11">
-        <v>0</v>
+        <v>-1203</v>
       </c>
       <c r="G105" s="11">
+        <v>501</v>
+      </c>
+      <c r="H105" s="11">
+        <v>-501</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0</v>
+      </c>
+      <c r="K105" s="11">
         <v>2000</v>
       </c>
-      <c r="H105" s="11">
+      <c r="L105" s="11">
         <v>-2000</v>
       </c>
-      <c r="I105" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M105" s="11">
+        <v>0</v>
+      </c>
+      <c r="N105" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
+        <v>140726</v>
+      </c>
+      <c r="F106" s="13">
+        <v>160674</v>
+      </c>
+      <c r="G106" s="13">
+        <v>31555</v>
+      </c>
+      <c r="H106" s="13">
+        <v>121653</v>
+      </c>
+      <c r="I106" s="13">
         <v>140383</v>
       </c>
-      <c r="F106" s="13">
+      <c r="J106" s="13">
         <v>-35760</v>
       </c>
-      <c r="G106" s="13">
+      <c r="K106" s="13">
         <v>223403</v>
       </c>
-      <c r="H106" s="13">
+      <c r="L106" s="13">
         <v>1087621</v>
       </c>
-      <c r="I106" s="13">
+      <c r="M106" s="13">
         <v>336208</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N106" s="13">
+        <v>1078956</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>111512</v>
+      </c>
+      <c r="F107" s="11">
+        <v>117957</v>
+      </c>
+      <c r="G107" s="11">
+        <v>198056</v>
+      </c>
+      <c r="H107" s="11">
+        <v>183885</v>
+      </c>
+      <c r="I107" s="11">
         <v>15557</v>
       </c>
-      <c r="F107" s="11">
+      <c r="J107" s="11">
         <v>120644</v>
       </c>
-      <c r="G107" s="11">
+      <c r="K107" s="11">
         <v>60538</v>
       </c>
-      <c r="H107" s="11">
+      <c r="L107" s="11">
         <v>121400</v>
       </c>
-      <c r="I107" s="11">
+      <c r="M107" s="11">
         <v>356118</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N107" s="11">
+        <v>-305186</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
+        <v>170388</v>
+      </c>
+      <c r="F108" s="13">
+        <v>383894</v>
+      </c>
+      <c r="G108" s="13">
+        <v>623789</v>
+      </c>
+      <c r="H108" s="13">
+        <v>642425</v>
+      </c>
+      <c r="I108" s="13">
         <v>495781</v>
       </c>
-      <c r="F108" s="13">
+      <c r="J108" s="13">
         <v>-104982</v>
       </c>
-      <c r="G108" s="13">
+      <c r="K108" s="13">
         <v>460391</v>
       </c>
-      <c r="H108" s="13">
+      <c r="L108" s="13">
         <v>-87474</v>
       </c>
-      <c r="I108" s="13">
+      <c r="M108" s="13">
         <v>162137</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N108" s="13">
+        <v>-123352</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="11">
+      <c r="E109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="11">
+        <v>134859</v>
+      </c>
+      <c r="I109" s="11">
         <v>-34555</v>
       </c>
-      <c r="F109" s="11">
+      <c r="J109" s="11">
         <v>164507</v>
       </c>
-      <c r="G109" s="11">
+      <c r="K109" s="11">
         <v>213021</v>
       </c>
-      <c r="H109" s="11">
+      <c r="L109" s="11">
         <v>-117930</v>
       </c>
-      <c r="I109" s="11">
+      <c r="M109" s="11">
         <v>100073</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N109" s="11">
+        <v>95363</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D110" s="13"/>
-      <c r="E110" s="13" t="s">
-        <v>13</v>
+      <c r="E110" s="13">
+        <v>0</v>
       </c>
       <c r="F110" s="13">
         <v>0</v>
@@ -2770,38 +4050,68 @@
       <c r="G110" s="13">
         <v>0</v>
       </c>
-      <c r="H110" s="13">
-        <v>0</v>
-      </c>
-      <c r="I110" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="13">
+        <v>0</v>
+      </c>
+      <c r="K110" s="13">
+        <v>0</v>
+      </c>
+      <c r="L110" s="13">
+        <v>0</v>
+      </c>
+      <c r="M110" s="13">
+        <v>0</v>
+      </c>
+      <c r="N110" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
+        <v>422149</v>
+      </c>
+      <c r="F111" s="15">
+        <v>661322</v>
+      </c>
+      <c r="G111" s="15">
+        <v>853901</v>
+      </c>
+      <c r="H111" s="15">
+        <v>1082321</v>
+      </c>
+      <c r="I111" s="15">
         <v>617166</v>
       </c>
-      <c r="F111" s="15">
+      <c r="J111" s="15">
         <v>144409</v>
       </c>
-      <c r="G111" s="15">
+      <c r="K111" s="15">
         <v>959353</v>
       </c>
-      <c r="H111" s="15">
+      <c r="L111" s="15">
         <v>1001617</v>
       </c>
-      <c r="I111" s="15">
+      <c r="M111" s="15">
         <v>954536</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N111" s="15">
+        <v>745781</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -2810,128 +4120,208 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
-        <v>13</v>
+      <c r="E113" s="11">
+        <v>0</v>
       </c>
       <c r="F113" s="11">
         <v>0</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J113" s="11">
+        <v>0</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>28490</v>
+      </c>
+      <c r="F114" s="13">
+        <v>-8072</v>
+      </c>
+      <c r="G114" s="13">
+        <v>31122</v>
+      </c>
+      <c r="H114" s="13">
+        <v>36443</v>
+      </c>
+      <c r="I114" s="13">
         <v>47817</v>
       </c>
-      <c r="F114" s="13">
+      <c r="J114" s="13">
         <v>44222</v>
       </c>
-      <c r="G114" s="13">
-        <v>0</v>
-      </c>
-      <c r="H114" s="13">
-        <v>0</v>
-      </c>
-      <c r="I114" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K114" s="13">
+        <v>0</v>
+      </c>
+      <c r="L114" s="13">
+        <v>0</v>
+      </c>
+      <c r="M114" s="13">
+        <v>0</v>
+      </c>
+      <c r="N114" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
+        <v>4542</v>
+      </c>
+      <c r="F115" s="11">
+        <v>679</v>
+      </c>
+      <c r="G115" s="11">
+        <v>0</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="I115" s="11">
         <v>3629</v>
       </c>
-      <c r="F115" s="11">
+      <c r="J115" s="11">
         <v>1067</v>
       </c>
-      <c r="G115" s="11">
+      <c r="K115" s="11">
         <v>13248</v>
       </c>
-      <c r="H115" s="11">
+      <c r="L115" s="11">
         <v>3055</v>
       </c>
-      <c r="I115" s="11">
+      <c r="M115" s="11">
         <v>18913</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N115" s="11">
+        <v>-22852</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
+        <v>0</v>
+      </c>
+      <c r="F116" s="13">
+        <v>4721</v>
+      </c>
+      <c r="G116" s="13">
+        <v>4067</v>
+      </c>
+      <c r="H116" s="13">
+        <v>33684</v>
+      </c>
+      <c r="I116" s="13">
         <v>15046</v>
       </c>
-      <c r="F116" s="13">
+      <c r="J116" s="13">
         <v>-30371</v>
       </c>
-      <c r="G116" s="13">
+      <c r="K116" s="13">
         <v>4995</v>
       </c>
-      <c r="H116" s="13">
+      <c r="L116" s="13">
         <v>1611</v>
       </c>
-      <c r="I116" s="13">
+      <c r="M116" s="13">
         <v>3358</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N116" s="13">
+        <v>-8153</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
+        <v>33032</v>
+      </c>
+      <c r="F117" s="15">
+        <v>-2672</v>
+      </c>
+      <c r="G117" s="15">
+        <v>35189</v>
+      </c>
+      <c r="H117" s="15">
+        <v>70127</v>
+      </c>
+      <c r="I117" s="15">
         <v>66492</v>
       </c>
-      <c r="F117" s="15">
+      <c r="J117" s="15">
         <v>14918</v>
       </c>
-      <c r="G117" s="15">
+      <c r="K117" s="15">
         <v>18243</v>
       </c>
-      <c r="H117" s="15">
+      <c r="L117" s="15">
         <v>4666</v>
       </c>
-      <c r="I117" s="15">
+      <c r="M117" s="15">
         <v>22271</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N117" s="15">
+        <v>-31005</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -2940,34 +4330,54 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>13</v>
+      <c r="E119" s="11">
+        <v>0</v>
       </c>
       <c r="F119" s="11">
         <v>0</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J119" s="11">
+        <v>0</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -2986,27 +4396,57 @@
       <c r="I120" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="17">
+        <v>0</v>
+      </c>
+      <c r="K120" s="17">
+        <v>0</v>
+      </c>
+      <c r="L120" s="17">
+        <v>0</v>
+      </c>
+      <c r="M120" s="17">
+        <v>0</v>
+      </c>
+      <c r="N120" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>455181</v>
+      </c>
+      <c r="F121" s="15">
+        <v>658650</v>
+      </c>
+      <c r="G121" s="15">
+        <v>889090</v>
+      </c>
+      <c r="H121" s="15">
+        <v>1152448</v>
+      </c>
+      <c r="I121" s="15">
         <v>683658</v>
       </c>
-      <c r="F121" s="15">
+      <c r="J121" s="15">
         <v>159327</v>
       </c>
-      <c r="G121" s="15">
+      <c r="K121" s="15">
         <v>977596</v>
       </c>
-      <c r="H121" s="15">
+      <c r="L121" s="15">
         <v>1006283</v>
       </c>
-      <c r="I121" s="15">
+      <c r="M121" s="15">
         <v>976807</v>
+      </c>
+      <c r="N121" s="15">
+        <v>714776</v>
       </c>
     </row>
   </sheetData>
